--- a/res/excel/result2.xlsx
+++ b/res/excel/result2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26818"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B63F6A-E667-4F6B-86C3-458EBB5E6353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,12 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -382,16 +386,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
@@ -445,112 +450,240 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="C3" s="3">
+        <v>415.69219381652999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>466.09105495939002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>516.48991610224903</v>
+      </c>
+      <c r="F3" s="3">
+        <v>566.88877724510905</v>
+      </c>
+      <c r="G3" s="3">
+        <v>617.28763838796795</v>
+      </c>
+      <c r="H3" s="3">
+        <v>667.68649953082797</v>
+      </c>
+      <c r="I3" s="3">
+        <v>718.08536067368698</v>
+      </c>
+      <c r="J3" s="3">
+        <v>768.48422181654701</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>45</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="C4" s="3">
+        <v>416.12019579714502</v>
+      </c>
+      <c r="D4" s="3">
+        <v>451.794264972348</v>
+      </c>
+      <c r="E4" s="3">
+        <v>487.46833414755201</v>
+      </c>
+      <c r="F4" s="3">
+        <v>523.14240332275597</v>
+      </c>
+      <c r="G4" s="3">
+        <v>558.81647249796004</v>
+      </c>
+      <c r="H4" s="3">
+        <v>594.49054167316399</v>
+      </c>
+      <c r="I4" s="3">
+        <v>630.16461084836703</v>
+      </c>
+      <c r="J4" s="3">
+        <v>665.83868002357099</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>90</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="C5" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="D5" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="E5" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="F5" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="G5" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="H5" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="I5" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="J5" s="3">
+        <v>416.54908003873402</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>135</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="C6" s="3">
+        <v>416.12019579714502</v>
+      </c>
+      <c r="D6" s="3">
+        <v>380.446126621941</v>
+      </c>
+      <c r="E6" s="3">
+        <v>344.77205744673699</v>
+      </c>
+      <c r="F6" s="3">
+        <v>309.09798827153298</v>
+      </c>
+      <c r="G6" s="3">
+        <v>273.42391909632897</v>
+      </c>
+      <c r="H6" s="3">
+        <v>237.74984992112601</v>
+      </c>
+      <c r="I6" s="3">
+        <v>202.075780745922</v>
+      </c>
+      <c r="J6" s="3">
+        <v>166.40171157071799</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>180</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="C7" s="3">
+        <v>415.69219381652999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>365.29333267367099</v>
+      </c>
+      <c r="E7" s="3">
+        <v>314.89447153081102</v>
+      </c>
+      <c r="F7" s="3">
+        <v>264.49561038795099</v>
+      </c>
+      <c r="G7" s="3">
+        <v>214.09674924509201</v>
+      </c>
+      <c r="H7" s="3">
+        <v>163.69788810223201</v>
+      </c>
+      <c r="I7" s="3">
+        <v>113.29902695937299</v>
+      </c>
+      <c r="J7" s="3">
+        <v>62.900165816513798</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>225</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="C8" s="3">
+        <v>416.12019579714502</v>
+      </c>
+      <c r="D8" s="3">
+        <v>380.446126621941</v>
+      </c>
+      <c r="E8" s="3">
+        <v>344.77205744673699</v>
+      </c>
+      <c r="F8" s="3">
+        <v>309.09798827153298</v>
+      </c>
+      <c r="G8" s="3">
+        <v>273.42391909632897</v>
+      </c>
+      <c r="H8" s="3">
+        <v>237.74984992112499</v>
+      </c>
+      <c r="I8" s="3">
+        <v>202.075780745922</v>
+      </c>
+      <c r="J8" s="3">
+        <v>166.40171157071799</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>270</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="C9" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="D9" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="E9" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="F9" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="G9" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="H9" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="I9" s="3">
+        <v>416.54908003873402</v>
+      </c>
+      <c r="J9" s="3">
+        <v>416.54908003873402</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>315</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="C10" s="3">
+        <v>416.12019579714502</v>
+      </c>
+      <c r="D10" s="3">
+        <v>451.794264972348</v>
+      </c>
+      <c r="E10" s="3">
+        <v>487.46833414755201</v>
+      </c>
+      <c r="F10" s="3">
+        <v>523.14240332275597</v>
+      </c>
+      <c r="G10" s="3">
+        <v>558.81647249796004</v>
+      </c>
+      <c r="H10" s="3">
+        <v>594.49054167316399</v>
+      </c>
+      <c r="I10" s="3">
+        <v>630.16461084836703</v>
+      </c>
+      <c r="J10" s="3">
+        <v>665.83868002357099</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
